--- a/model/results/mix2_ggpos_h2pos/v_demand.xlsx
+++ b/model/results/mix2_ggpos_h2pos/v_demand.xlsx
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333336</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>2911666.400226755</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4233166.933106576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703678</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333265</v>
+        <v>2144833.333333332</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="5">
@@ -1667,13 +1667,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444443</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407413</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>342616.9444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1820,10 +1820,10 @@
         <v>261297.7414965986</v>
       </c>
       <c r="C11" t="n">
-        <v>61704.16326530618</v>
+        <v>61704.16326530609</v>
       </c>
       <c r="D11" t="n">
-        <v>2454.421768707488</v>
+        <v>2454.421768707483</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>212304.4149659864</v>
       </c>
       <c r="C13" t="n">
-        <v>50134.63265306128</v>
+        <v>50134.6326530612</v>
       </c>
       <c r="D13" t="n">
-        <v>1994.217687074834</v>
+        <v>1994.21768707483</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146979.9795918367</v>
+        <v>146979.979591837</v>
       </c>
       <c r="C14" t="n">
-        <v>34708.59183673467</v>
+        <v>34708.59183673499</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897959</v>
+        <v>1380.612244898001</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122046.1224489796</v>
+        <v>122046.12244898</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>1306488.707482993</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>308520.8163265304</v>
       </c>
       <c r="D16" t="n">
         <v>12272.10884353741</v>
@@ -1957,7 +1957,7 @@
         <v>1084854.421768707</v>
       </c>
       <c r="G16" t="n">
-        <v>308520.8163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,10 +1970,10 @@
         <v>489933.2653061224</v>
       </c>
       <c r="C17" t="n">
-        <v>115695.3061224491</v>
+        <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.04081632654</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>163311.0884353741</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38565.1020408163</v>
       </c>
       <c r="D18" t="n">
         <v>1534.013605442177</v>
@@ -2007,7 +2007,7 @@
         <v>135606.8027210884</v>
       </c>
       <c r="G18" t="n">
-        <v>38565.1020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2042,19 +2042,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16331.10884353741</v>
+        <v>16331.10884353743</v>
       </c>
       <c r="C20" t="n">
-        <v>3856.51020408163</v>
+        <v>3856.510204081652</v>
       </c>
       <c r="D20" t="n">
-        <v>153.4013605442177</v>
+        <v>153.4013605442205</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13560.68027210884</v>
+        <v>13560.68027210887</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C21" t="n">
-        <v>104125.7755102042</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D21" t="n">
-        <v>4141.836734693886</v>
+        <v>4141.836734693878</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>326622.1768707483</v>
       </c>
       <c r="C22" t="n">
-        <v>77130.20408163274</v>
+        <v>77130.2040816326</v>
       </c>
       <c r="D22" t="n">
-        <v>3068.02721088436</v>
+        <v>3068.027210884353</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>604251.0272108844</v>
       </c>
       <c r="C25" t="n">
-        <v>142690.8775510206</v>
+        <v>142690.8775510204</v>
       </c>
       <c r="D25" t="n">
-        <v>5675.850340136066</v>
+        <v>5675.850340136055</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>326622.1768707483</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>77130.2040816326</v>
       </c>
       <c r="D26" t="n">
-        <v>3068.02721088436</v>
+        <v>3068.027210884353</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>271213.6054421768</v>
       </c>
       <c r="G26" t="n">
-        <v>77130.20408163274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2292,19 +2292,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48993.32653061224</v>
+        <v>48993.32653061229</v>
       </c>
       <c r="C30" t="n">
-        <v>11569.53061224489</v>
+        <v>11569.53061224496</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632653</v>
+        <v>460.2040816326615</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40682.04081632652</v>
+        <v>40682.04081632661</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C31" t="n">
-        <v>104125.7755102042</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D31" t="n">
-        <v>4141.836734693886</v>
+        <v>4141.836734693878</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>23139.06122448979</v>
+        <v>23139.06122448978</v>
       </c>
       <c r="D32" t="n">
-        <v>920.4081632653063</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2370,16 +2370,16 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="D33" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2392,19 +2392,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2417,19 +2417,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2467,19 +2467,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.8888888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666666</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>441828.5487528341</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6703004.784580501</v>
       </c>
     </row>
     <row r="3">
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
         <v>7144833.333333331</v>
@@ -2746,7 +2746,7 @@
         <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>517428.8188208599</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6627404.514512472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2768,13 +2768,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>228411.2962962962</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2793,13 +2793,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>261297.7414965986</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>61704.16326530609</v>
       </c>
       <c r="D11" t="n">
         <v>2454.421768707483</v>
@@ -2933,7 +2933,7 @@
         <v>216970.8843537415</v>
       </c>
       <c r="G11" t="n">
-        <v>61704.16326530609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2946,7 +2946,7 @@
         <v>130648.8707482993</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30852.08163265304</v>
       </c>
       <c r="D12" t="n">
         <v>1227.210884353741</v>
@@ -2958,7 +2958,7 @@
         <v>108485.4421768707</v>
       </c>
       <c r="G12" t="n">
-        <v>30852.08163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2993,19 +2993,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146979.9795918367</v>
+        <v>146979.979591837</v>
       </c>
       <c r="C14" t="n">
-        <v>34708.59183673467</v>
+        <v>34708.59183673499</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897959</v>
+        <v>1380.612244898001</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122046.1224489796</v>
+        <v>122046.12244898</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.040816326531</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>849217.6598639456</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>200538.5306122448</v>
       </c>
       <c r="D19" t="n">
         <v>7976.87074829932</v>
@@ -3133,7 +3133,7 @@
         <v>705155.3741496599</v>
       </c>
       <c r="G19" t="n">
-        <v>200538.5306122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16331.10884353741</v>
+        <v>16331.10884353743</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3856.510204081652</v>
       </c>
       <c r="D20" t="n">
-        <v>153.4013605442177</v>
+        <v>153.4013605442205</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13560.68027210884</v>
+        <v>13560.68027210887</v>
       </c>
       <c r="G20" t="n">
-        <v>3856.51020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3321,7 +3321,7 @@
         <v>1633.110884353741</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>385.651020408163</v>
       </c>
       <c r="D27" t="n">
         <v>15.34013605442177</v>
@@ -3333,7 +3333,7 @@
         <v>1356.068027210884</v>
       </c>
       <c r="G27" t="n">
-        <v>385.651020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48993.32653061224</v>
+        <v>48993.32653061229</v>
       </c>
       <c r="C30" t="n">
-        <v>11569.53061224489</v>
+        <v>11569.53061224496</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632653</v>
+        <v>460.2040816326615</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40682.04081632652</v>
+        <v>40682.04081632661</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3446,10 +3446,10 @@
         <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>23139.06122448979</v>
+        <v>23139.06122448978</v>
       </c>
       <c r="D32" t="n">
-        <v>920.4081632653063</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3493,19 +3493,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -3633,7 +3633,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="40">
@@ -3671,7 +3671,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -3683,7 +3683,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="42">
@@ -3721,7 +3721,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -3733,7 +3733,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
   </sheetData>
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703725</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>146179.6598639461</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6998653.673469389</v>
       </c>
     </row>
     <row r="3">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>4742707.40385487</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2402125.929478462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3847,7 +3847,7 @@
         <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3894,13 +3894,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407413</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>342616.9444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4022,7 +4022,7 @@
         <v>261297.7414965986</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>61704.16326530609</v>
       </c>
       <c r="D11" t="n">
         <v>2454.421768707483</v>
@@ -4034,7 +4034,7 @@
         <v>216970.8843537415</v>
       </c>
       <c r="G11" t="n">
-        <v>61704.16326530609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4047,7 +4047,7 @@
         <v>130648.8707482993</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30852.08163265304</v>
       </c>
       <c r="D12" t="n">
         <v>1227.210884353741</v>
@@ -4059,7 +4059,7 @@
         <v>108485.4421768707</v>
       </c>
       <c r="G12" t="n">
-        <v>30852.08163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4072,7 +4072,7 @@
         <v>212304.4149659864</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>50134.6326530612</v>
       </c>
       <c r="D13" t="n">
         <v>1994.21768707483</v>
@@ -4084,7 +4084,7 @@
         <v>176288.843537415</v>
       </c>
       <c r="G13" t="n">
-        <v>50134.6326530612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4094,22 +4094,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146979.9795918367</v>
+        <v>146979.979591837</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>34708.59183673499</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897959</v>
+        <v>1380.612244898001</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122046.1224489796</v>
+        <v>122046.12244898</v>
       </c>
       <c r="G14" t="n">
-        <v>34708.59183673467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4172,10 +4172,10 @@
         <v>489933.2653061224</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.040816326531</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>406820.4081632653</v>
       </c>
       <c r="G17" t="n">
-        <v>115695.3061224489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4244,22 +4244,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16331.10884353741</v>
+        <v>16331.10884353743</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3856.510204081652</v>
       </c>
       <c r="D20" t="n">
-        <v>153.4013605442177</v>
+        <v>153.4013605442205</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13560.68027210884</v>
+        <v>13560.68027210887</v>
       </c>
       <c r="G20" t="n">
-        <v>3856.51020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4272,7 +4272,7 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D21" t="n">
         <v>4141.836734693878</v>
@@ -4284,7 +4284,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G21" t="n">
-        <v>104125.775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4322,7 +4322,7 @@
         <v>114317.7619047619</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26995.57142857142</v>
       </c>
       <c r="D23" t="n">
         <v>1073.809523809524</v>
@@ -4334,7 +4334,7 @@
         <v>94924.76190476189</v>
       </c>
       <c r="G23" t="n">
-        <v>26995.57142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4347,7 +4347,7 @@
         <v>718568.7891156462</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>169686.4489795917</v>
       </c>
       <c r="D24" t="n">
         <v>6749.659863945578</v>
@@ -4359,7 +4359,7 @@
         <v>596669.9319727891</v>
       </c>
       <c r="G24" t="n">
-        <v>169686.4489795917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4372,7 +4372,7 @@
         <v>604251.0272108844</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142690.8775510204</v>
       </c>
       <c r="D25" t="n">
         <v>5675.850340136055</v>
@@ -4384,7 +4384,7 @@
         <v>501745.1700680272</v>
       </c>
       <c r="G25" t="n">
-        <v>142690.8775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4422,7 +4422,7 @@
         <v>1633.110884353741</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>385.651020408163</v>
       </c>
       <c r="D27" t="n">
         <v>15.34013605442177</v>
@@ -4434,7 +4434,7 @@
         <v>1356.068027210884</v>
       </c>
       <c r="G27" t="n">
-        <v>385.651020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4447,7 +4447,7 @@
         <v>8165.554421768707</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1928.255102040815</v>
       </c>
       <c r="D28" t="n">
         <v>76.70068027210884</v>
@@ -4459,7 +4459,7 @@
         <v>6780.340136054421</v>
       </c>
       <c r="G28" t="n">
-        <v>1928.255102040815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4472,7 +4472,7 @@
         <v>195973.306122449</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>46278.12244897956</v>
       </c>
       <c r="D29" t="n">
         <v>1840.816326530612</v>
@@ -4484,7 +4484,7 @@
         <v>162728.1632653061</v>
       </c>
       <c r="G29" t="n">
-        <v>46278.12244897956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4494,22 +4494,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48993.32653061224</v>
+        <v>48993.32653061229</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>11569.53061224496</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632653</v>
+        <v>460.2040816326615</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40682.04081632652</v>
+        <v>40682.04081632661</v>
       </c>
       <c r="G30" t="n">
-        <v>11569.53061224489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4522,7 +4522,7 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D31" t="n">
         <v>4141.836734693878</v>
@@ -4534,7 +4534,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G31" t="n">
-        <v>104125.775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4547,10 +4547,10 @@
         <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>23139.06122448978</v>
       </c>
       <c r="D32" t="n">
-        <v>920.4081632653063</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>81364.08163265305</v>
       </c>
       <c r="G32" t="n">
-        <v>23139.06122448979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4572,7 +4572,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -4584,7 +4584,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4594,22 +4594,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4622,7 +4622,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -4634,7 +4634,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4647,7 +4647,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -4659,7 +4659,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4672,7 +4672,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -4684,7 +4684,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4697,7 +4697,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -4709,7 +4709,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4722,7 +4722,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -4734,7 +4734,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4747,7 +4747,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -4759,7 +4759,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4772,7 +4772,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -4784,7 +4784,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4797,7 +4797,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222223</v>
@@ -4809,7 +4809,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4822,7 +4822,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -4834,7 +4834,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4898,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>273395.0113378656</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6871438.321995466</v>
       </c>
     </row>
     <row r="3">
@@ -4920,10 +4920,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>5159822.969614507</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1985010.363718824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703708</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333338</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4995,13 +4995,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>1633110.884353742</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>385651.0204081631</v>
       </c>
       <c r="D10" t="n">
         <v>15340.13605442177</v>
@@ -5110,7 +5110,7 @@
         <v>1356068.027210884</v>
       </c>
       <c r="G10" t="n">
-        <v>385651.0204081631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5123,7 +5123,7 @@
         <v>261297.7414965986</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>61704.16326530609</v>
       </c>
       <c r="D11" t="n">
         <v>2454.421768707483</v>
@@ -5135,7 +5135,7 @@
         <v>216970.8843537415</v>
       </c>
       <c r="G11" t="n">
-        <v>61704.16326530609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5148,7 +5148,7 @@
         <v>130648.8707482993</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30852.08163265304</v>
       </c>
       <c r="D12" t="n">
         <v>1227.210884353741</v>
@@ -5160,7 +5160,7 @@
         <v>108485.4421768707</v>
       </c>
       <c r="G12" t="n">
-        <v>30852.08163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         <v>212304.4149659864</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>50134.6326530612</v>
       </c>
       <c r="D13" t="n">
         <v>1994.21768707483</v>
@@ -5185,7 +5185,7 @@
         <v>176288.843537415</v>
       </c>
       <c r="G13" t="n">
-        <v>50134.6326530612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5195,22 +5195,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146979.9795918367</v>
+        <v>146979.979591837</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>34708.59183673499</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897959</v>
+        <v>1380.612244898001</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122046.1224489796</v>
+        <v>122046.12244898</v>
       </c>
       <c r="G14" t="n">
-        <v>34708.59183673467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5223,7 +5223,7 @@
         <v>734899.8979591837</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>173542.9591836734</v>
       </c>
       <c r="D15" t="n">
         <v>6903.061224489797</v>
@@ -5235,7 +5235,7 @@
         <v>610230.612244898</v>
       </c>
       <c r="G15" t="n">
-        <v>173542.9591836734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5273,10 +5273,10 @@
         <v>489933.2653061224</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.040816326531</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>406820.4081632653</v>
       </c>
       <c r="G17" t="n">
-        <v>115695.3061224489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5323,7 +5323,7 @@
         <v>849217.6598639456</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>200538.5306122448</v>
       </c>
       <c r="D19" t="n">
         <v>7976.87074829932</v>
@@ -5335,7 +5335,7 @@
         <v>705155.3741496599</v>
       </c>
       <c r="G19" t="n">
-        <v>200538.5306122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5345,22 +5345,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16331.10884353741</v>
+        <v>16331.10884353743</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3856.510204081652</v>
       </c>
       <c r="D20" t="n">
-        <v>153.4013605442177</v>
+        <v>153.4013605442205</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13560.68027210884</v>
+        <v>13560.68027210887</v>
       </c>
       <c r="G20" t="n">
-        <v>3856.51020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5373,7 +5373,7 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D21" t="n">
         <v>4141.836734693878</v>
@@ -5385,7 +5385,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G21" t="n">
-        <v>104125.775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5398,7 +5398,7 @@
         <v>326622.1768707483</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>77130.2040816326</v>
       </c>
       <c r="D22" t="n">
         <v>3068.027210884353</v>
@@ -5410,7 +5410,7 @@
         <v>271213.6054421768</v>
       </c>
       <c r="G22" t="n">
-        <v>77130.2040816326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5423,7 +5423,7 @@
         <v>114317.7619047619</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26995.57142857142</v>
       </c>
       <c r="D23" t="n">
         <v>1073.809523809524</v>
@@ -5435,7 +5435,7 @@
         <v>94924.76190476189</v>
       </c>
       <c r="G23" t="n">
-        <v>26995.57142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5448,7 +5448,7 @@
         <v>718568.7891156462</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>169686.4489795917</v>
       </c>
       <c r="D24" t="n">
         <v>6749.659863945578</v>
@@ -5460,7 +5460,7 @@
         <v>596669.9319727891</v>
       </c>
       <c r="G24" t="n">
-        <v>169686.4489795917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5473,7 +5473,7 @@
         <v>604251.0272108844</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142690.8775510204</v>
       </c>
       <c r="D25" t="n">
         <v>5675.850340136055</v>
@@ -5485,7 +5485,7 @@
         <v>501745.1700680272</v>
       </c>
       <c r="G25" t="n">
-        <v>142690.8775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5523,7 +5523,7 @@
         <v>1633.110884353741</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>385.651020408163</v>
       </c>
       <c r="D27" t="n">
         <v>15.34013605442177</v>
@@ -5535,7 +5535,7 @@
         <v>1356.068027210884</v>
       </c>
       <c r="G27" t="n">
-        <v>385.651020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5548,7 +5548,7 @@
         <v>8165.554421768707</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1928.255102040815</v>
       </c>
       <c r="D28" t="n">
         <v>76.70068027210884</v>
@@ -5560,7 +5560,7 @@
         <v>6780.340136054421</v>
       </c>
       <c r="G28" t="n">
-        <v>1928.255102040815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5573,7 +5573,7 @@
         <v>195973.306122449</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>46278.12244897956</v>
       </c>
       <c r="D29" t="n">
         <v>1840.816326530612</v>
@@ -5585,7 +5585,7 @@
         <v>162728.1632653061</v>
       </c>
       <c r="G29" t="n">
-        <v>46278.12244897956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5595,22 +5595,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48993.32653061224</v>
+        <v>48993.32653061229</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>11569.53061224496</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632653</v>
+        <v>460.2040816326615</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40682.04081632652</v>
+        <v>40682.04081632661</v>
       </c>
       <c r="G30" t="n">
-        <v>11569.53061224489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5623,7 +5623,7 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D31" t="n">
         <v>4141.836734693878</v>
@@ -5635,7 +5635,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G31" t="n">
-        <v>104125.775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5648,10 +5648,10 @@
         <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>23139.06122448978</v>
       </c>
       <c r="D32" t="n">
-        <v>920.4081632653063</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>81364.08163265305</v>
       </c>
       <c r="G32" t="n">
-        <v>23139.06122448979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5673,7 +5673,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -5685,7 +5685,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5695,22 +5695,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5723,7 +5723,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -5735,7 +5735,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5773,7 +5773,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -5785,7 +5785,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5798,7 +5798,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -5810,7 +5810,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5823,7 +5823,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -5835,7 +5835,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5873,7 +5873,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -5885,7 +5885,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5898,7 +5898,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222223</v>
@@ -5910,7 +5910,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5923,7 +5923,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -5935,7 +5935,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333293</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>3153549.818820819</v>
+        <v>469118.6417233555</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3991283.514512473</v>
+        <v>6675714.691609978</v>
       </c>
     </row>
     <row r="4">
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703708</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333338</v>
+        <v>7144833.333333335</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6071,13 +6071,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6096,13 +6096,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407415</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>342616.9444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6199,7 +6199,7 @@
         <v>1633110.884353742</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>385651.0204081631</v>
       </c>
       <c r="D10" t="n">
         <v>15340.13605442177</v>
@@ -6211,7 +6211,7 @@
         <v>1356068.027210884</v>
       </c>
       <c r="G10" t="n">
-        <v>385651.0204081631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6224,10 +6224,10 @@
         <v>261297.7414965986</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>61704.16326530609</v>
       </c>
       <c r="D11" t="n">
-        <v>2454.421768707488</v>
+        <v>2454.421768707483</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>216970.8843537415</v>
       </c>
       <c r="G11" t="n">
-        <v>61704.16326530618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6249,10 +6249,10 @@
         <v>130648.8707482993</v>
       </c>
       <c r="C12" t="n">
-        <v>30852.08163265309</v>
+        <v>30852.08163265304</v>
       </c>
       <c r="D12" t="n">
-        <v>1227.210884353744</v>
+        <v>1227.210884353741</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6274,10 +6274,10 @@
         <v>212304.4149659864</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>50134.6326530612</v>
       </c>
       <c r="D13" t="n">
-        <v>1994.217687074834</v>
+        <v>1994.21768707483</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>176288.843537415</v>
       </c>
       <c r="G13" t="n">
-        <v>50134.63265306128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6296,22 +6296,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146979.9795918367</v>
+        <v>146979.979591837</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>34708.59183673475</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897959</v>
+        <v>1380.612244897967</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122046.1224489796</v>
+        <v>122046.12244898</v>
       </c>
       <c r="G14" t="n">
-        <v>34708.59183673467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6324,10 +6324,10 @@
         <v>734899.8979591837</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>173542.9591836738</v>
       </c>
       <c r="D15" t="n">
-        <v>6903.06122448981</v>
+        <v>6903.061224489797</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>610230.612244898</v>
       </c>
       <c r="G15" t="n">
-        <v>173542.9591836737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12272.10884353744</v>
+        <v>12272.10884353741</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6361,7 +6361,7 @@
         <v>1084854.421768707</v>
       </c>
       <c r="G16" t="n">
-        <v>308520.8163265309</v>
+        <v>308520.8163265304</v>
       </c>
     </row>
     <row r="17">
@@ -6374,10 +6374,10 @@
         <v>489933.2653061224</v>
       </c>
       <c r="C17" t="n">
-        <v>115695.3061224491</v>
+        <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.04081632654</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>163311.0884353741</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38565.1020408163</v>
       </c>
       <c r="D18" t="n">
         <v>1534.013605442177</v>
@@ -6411,7 +6411,7 @@
         <v>135606.8027210884</v>
       </c>
       <c r="G18" t="n">
-        <v>38565.1020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6424,10 +6424,10 @@
         <v>849217.6598639456</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>200538.5306122448</v>
       </c>
       <c r="D19" t="n">
-        <v>7976.870748299336</v>
+        <v>7976.87074829932</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>705155.3741496599</v>
       </c>
       <c r="G19" t="n">
-        <v>200538.5306122451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -6446,22 +6446,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16331.10884353741</v>
+        <v>16331.10884353744</v>
       </c>
       <c r="C20" t="n">
-        <v>3856.510204081636</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>153.401360544218</v>
+        <v>153.4013605442185</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13560.68027210884</v>
+        <v>13560.68027210887</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3856.510204081639</v>
       </c>
     </row>
     <row r="21">
@@ -6474,10 +6474,10 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>104125.7755102043</v>
       </c>
       <c r="D21" t="n">
-        <v>4141.836734693886</v>
+        <v>4141.836734693878</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G21" t="n">
-        <v>104125.7755102042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -6499,7 +6499,7 @@
         <v>326622.1768707483</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>77130.2040816326</v>
       </c>
       <c r="D22" t="n">
         <v>3068.027210884353</v>
@@ -6511,7 +6511,7 @@
         <v>271213.6054421768</v>
       </c>
       <c r="G22" t="n">
-        <v>77130.2040816326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6524,10 +6524,10 @@
         <v>114317.7619047619</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26995.57142857142</v>
       </c>
       <c r="D23" t="n">
-        <v>1073.809523809526</v>
+        <v>1073.809523809524</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>94924.76190476189</v>
       </c>
       <c r="G23" t="n">
-        <v>26995.57142857146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6549,10 +6549,10 @@
         <v>718568.7891156462</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>169686.4489795917</v>
       </c>
       <c r="D24" t="n">
-        <v>6749.659863945591</v>
+        <v>6749.659863945578</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>596669.9319727891</v>
       </c>
       <c r="G24" t="n">
-        <v>169686.448979592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6574,7 +6574,7 @@
         <v>604251.0272108844</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142690.8775510204</v>
       </c>
       <c r="D25" t="n">
         <v>5675.850340136055</v>
@@ -6586,7 +6586,7 @@
         <v>501745.1700680272</v>
       </c>
       <c r="G25" t="n">
-        <v>142690.8775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6624,7 +6624,7 @@
         <v>1633.110884353741</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>385.651020408163</v>
       </c>
       <c r="D27" t="n">
         <v>15.34013605442177</v>
@@ -6636,7 +6636,7 @@
         <v>1356.068027210884</v>
       </c>
       <c r="G27" t="n">
-        <v>385.651020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6649,7 +6649,7 @@
         <v>8165.554421768707</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1928.255102040815</v>
       </c>
       <c r="D28" t="n">
         <v>76.70068027210884</v>
@@ -6661,7 +6661,7 @@
         <v>6780.340136054421</v>
       </c>
       <c r="G28" t="n">
-        <v>1928.255102040815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6674,10 +6674,10 @@
         <v>195973.306122449</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>46278.12244897956</v>
       </c>
       <c r="D29" t="n">
-        <v>1840.816326530616</v>
+        <v>1840.816326530612</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>162728.1632653061</v>
       </c>
       <c r="G29" t="n">
-        <v>46278.12244897964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6696,19 +6696,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48993.32653061224</v>
+        <v>48993.32653061234</v>
       </c>
       <c r="C30" t="n">
-        <v>11569.53061224491</v>
+        <v>11569.53061224496</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632654</v>
+        <v>460.2040816326556</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40682.04081632652</v>
+        <v>40682.04081632661</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D31" t="n">
-        <v>4141.836734693886</v>
+        <v>4141.836734693878</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G31" t="n">
-        <v>104125.7755102042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6749,10 +6749,10 @@
         <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>23139.06122448978</v>
       </c>
       <c r="D32" t="n">
-        <v>920.408163265308</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>81364.08163265305</v>
       </c>
       <c r="G32" t="n">
-        <v>23139.06122448982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -6786,7 +6786,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6824,7 +6824,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222222</v>
@@ -6836,7 +6836,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6849,7 +6849,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222222</v>
@@ -6861,7 +6861,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6924,7 +6924,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -6936,7 +6936,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6949,7 +6949,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -6961,7 +6961,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6974,7 +6974,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -6986,7 +6986,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6999,7 +6999,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -7011,7 +7011,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7024,7 +7024,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222222</v>
@@ -7036,7 +7036,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7097,10 +7097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3393991.215646263</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333331</v>
+        <v>3750842.117687072</v>
       </c>
     </row>
     <row r="3">
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703725</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>2927353.480952381</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4217479.852380951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7172,16 +7172,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692523.6111111082</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1615888.425925919</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15340.1360544218</v>
+        <v>15340.13605442177</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>1356068.027210884</v>
       </c>
       <c r="G10" t="n">
-        <v>385651.0204081637</v>
+        <v>385651.0204081631</v>
       </c>
     </row>
     <row r="11">
@@ -7325,10 +7325,10 @@
         <v>261297.7414965986</v>
       </c>
       <c r="C11" t="n">
-        <v>61704.16326530618</v>
+        <v>61704.16326530609</v>
       </c>
       <c r="D11" t="n">
-        <v>2454.421768707488</v>
+        <v>2454.421768707483</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7350,10 +7350,10 @@
         <v>130648.8707482993</v>
       </c>
       <c r="C12" t="n">
-        <v>30852.08163265309</v>
+        <v>30852.08163265304</v>
       </c>
       <c r="D12" t="n">
-        <v>1227.210884353744</v>
+        <v>1227.210884353741</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>212304.4149659864</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>50134.6326530612</v>
       </c>
       <c r="D13" t="n">
-        <v>1994.217687074834</v>
+        <v>1994.21768707483</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>176288.843537415</v>
       </c>
       <c r="G13" t="n">
-        <v>50134.63265306128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7400,10 +7400,10 @@
         <v>146979.9795918367</v>
       </c>
       <c r="C14" t="n">
-        <v>34708.59183673473</v>
+        <v>34708.59183673475</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897962</v>
+        <v>1380.612244897959</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7422,22 +7422,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>734899.8979591841</v>
+        <v>734899.8979591837</v>
       </c>
       <c r="C15" t="n">
-        <v>173542.9591836737</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>6903.06122448981</v>
+        <v>6903.061224489797</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>610230.6122448981</v>
+        <v>610230.612244898</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>173542.9591836734</v>
       </c>
     </row>
     <row r="16">
@@ -7450,10 +7450,10 @@
         <v>1306488.707482993</v>
       </c>
       <c r="C16" t="n">
-        <v>308520.8163265309</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12272.10884353744</v>
+        <v>12272.10884353741</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7462,7 +7462,7 @@
         <v>1084854.421768707</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>308520.8163265304</v>
       </c>
     </row>
     <row r="17">
@@ -7472,13 +7472,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>489933.2653061227</v>
+        <v>489933.2653061224</v>
       </c>
       <c r="C17" t="n">
-        <v>115695.3061224491</v>
+        <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.04081632654</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>163311.0884353742</v>
+        <v>163311.0884353741</v>
       </c>
       <c r="C18" t="n">
-        <v>38565.10204081637</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1534.01360544218</v>
+        <v>1534.013605442177</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>135606.8027210884</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>38565.1020408163</v>
       </c>
     </row>
     <row r="19">
@@ -7525,10 +7525,10 @@
         <v>849217.6598639456</v>
       </c>
       <c r="C19" t="n">
-        <v>200538.5306122451</v>
+        <v>200538.5306122448</v>
       </c>
       <c r="D19" t="n">
-        <v>7976.870748299336</v>
+        <v>7976.87074829932</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>16331.10884353741</v>
       </c>
       <c r="C20" t="n">
-        <v>3856.510204081636</v>
+        <v>3856.51020408163</v>
       </c>
       <c r="D20" t="n">
-        <v>153.401360544218</v>
+        <v>153.4013605442177</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7575,10 +7575,10 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C21" t="n">
-        <v>104125.7755102042</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D21" t="n">
-        <v>4141.836734693886</v>
+        <v>4141.836734693878</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3068.02721088436</v>
+        <v>3068.027210884353</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>271213.6054421768</v>
       </c>
       <c r="G22" t="n">
-        <v>77130.20408163274</v>
+        <v>77130.2040816326</v>
       </c>
     </row>
     <row r="23">
@@ -7625,10 +7625,10 @@
         <v>114317.7619047619</v>
       </c>
       <c r="C23" t="n">
-        <v>26995.57142857146</v>
+        <v>26995.57142857142</v>
       </c>
       <c r="D23" t="n">
-        <v>1073.809523809526</v>
+        <v>1073.809523809524</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -7650,10 +7650,10 @@
         <v>718568.7891156462</v>
       </c>
       <c r="C24" t="n">
-        <v>169686.448979592</v>
+        <v>169686.4489795917</v>
       </c>
       <c r="D24" t="n">
-        <v>6749.659863945591</v>
+        <v>6749.659863945578</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7675,10 +7675,10 @@
         <v>604251.0272108844</v>
       </c>
       <c r="C25" t="n">
-        <v>142690.8775510206</v>
+        <v>142690.8775510204</v>
       </c>
       <c r="D25" t="n">
-        <v>5675.850340136066</v>
+        <v>5675.850340136055</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7700,10 +7700,10 @@
         <v>326622.1768707483</v>
       </c>
       <c r="C26" t="n">
-        <v>77130.20408163274</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3068.02721088436</v>
+        <v>3068.027210884353</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>271213.6054421768</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>77130.2040816326</v>
       </c>
     </row>
     <row r="27">
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>15.3401360544218</v>
+        <v>15.34013605442177</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7737,7 +7737,7 @@
         <v>1356.068027210884</v>
       </c>
       <c r="G27" t="n">
-        <v>385.6510204081637</v>
+        <v>385.651020408163</v>
       </c>
     </row>
     <row r="28">
@@ -7750,10 +7750,10 @@
         <v>8165.554421768707</v>
       </c>
       <c r="C28" t="n">
-        <v>1928.255102040818</v>
+        <v>1928.255102040815</v>
       </c>
       <c r="D28" t="n">
-        <v>76.700680272109</v>
+        <v>76.70068027210884</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -7775,10 +7775,10 @@
         <v>195973.306122449</v>
       </c>
       <c r="C29" t="n">
-        <v>46278.12244897964</v>
+        <v>46278.12244897956</v>
       </c>
       <c r="D29" t="n">
-        <v>1840.816326530616</v>
+        <v>1840.816326530612</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632654</v>
+        <v>460.204081632653</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>40682.04081632652</v>
       </c>
       <c r="G30" t="n">
-        <v>11569.53061224491</v>
+        <v>11569.53061224492</v>
       </c>
     </row>
     <row r="31">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>440939.9387755105</v>
+        <v>440939.9387755102</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D31" t="n">
-        <v>4141.836734693886</v>
+        <v>4141.836734693878</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G31" t="n">
-        <v>104125.7755102042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7847,22 +7847,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97986.65306122454</v>
+        <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>23139.06122448982</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>920.408163265308</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>81364.08163265306</v>
+        <v>81364.08163265305</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>23139.06122448978</v>
       </c>
     </row>
     <row r="33">
@@ -8025,7 +8025,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -8037,7 +8037,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="40">
@@ -8100,7 +8100,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -8112,7 +8112,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="3">
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>1159600.475056684</v>
+        <v>92355.02380952502</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5985232.858276648</v>
+        <v>7052478.309523808</v>
       </c>
     </row>
     <row r="4">
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703734</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333445</v>
+        <v>7144833.333333335</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -8282,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692523.6111111098</v>
+        <v>242990.7407407415</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1615888.425925921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="7">
@@ -8451,7 +8451,7 @@
         <v>130648.8707482993</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30852.08163265304</v>
       </c>
       <c r="D12" t="n">
         <v>1227.210884353741</v>
@@ -8463,7 +8463,7 @@
         <v>108485.4421768707</v>
       </c>
       <c r="G12" t="n">
-        <v>30852.08163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8526,7 +8526,7 @@
         <v>734899.8979591837</v>
       </c>
       <c r="C15" t="n">
-        <v>173542.9591836737</v>
+        <v>173542.9591836734</v>
       </c>
       <c r="D15" t="n">
         <v>6903.061224489797</v>
@@ -8576,7 +8576,7 @@
         <v>489933.2653061224</v>
       </c>
       <c r="C17" t="n">
-        <v>115695.3061224491</v>
+        <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
         <v>4602.04081632653</v>
@@ -8626,7 +8626,7 @@
         <v>849217.6598639456</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>200538.5306122448</v>
       </c>
       <c r="D19" t="n">
         <v>7976.87074829932</v>
@@ -8638,7 +8638,7 @@
         <v>705155.3741496599</v>
       </c>
       <c r="G19" t="n">
-        <v>200538.5306122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8651,7 +8651,7 @@
         <v>16331.10884353741</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3856.51020408163</v>
       </c>
       <c r="D20" t="n">
         <v>153.4013605442177</v>
@@ -8663,7 +8663,7 @@
         <v>13560.68027210884</v>
       </c>
       <c r="G20" t="n">
-        <v>3856.51020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8676,7 +8676,7 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D21" t="n">
         <v>4141.836734693878</v>
@@ -8688,7 +8688,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G21" t="n">
-        <v>104125.775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8726,7 +8726,7 @@
         <v>114317.7619047619</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26995.57142857142</v>
       </c>
       <c r="D23" t="n">
         <v>1073.809523809524</v>
@@ -8738,7 +8738,7 @@
         <v>94924.76190476189</v>
       </c>
       <c r="G23" t="n">
-        <v>26995.57142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -8751,7 +8751,7 @@
         <v>718568.7891156462</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>169686.4489795917</v>
       </c>
       <c r="D24" t="n">
         <v>6749.659863945578</v>
@@ -8763,7 +8763,7 @@
         <v>596669.9319727891</v>
       </c>
       <c r="G24" t="n">
-        <v>169686.4489795917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8776,7 +8776,7 @@
         <v>604251.0272108844</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142690.8775510204</v>
       </c>
       <c r="D25" t="n">
         <v>5675.850340136055</v>
@@ -8788,7 +8788,7 @@
         <v>501745.1700680272</v>
       </c>
       <c r="G25" t="n">
-        <v>142690.8775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8826,7 +8826,7 @@
         <v>1633.110884353741</v>
       </c>
       <c r="C27" t="n">
-        <v>385.6510204081637</v>
+        <v>385.6510204081639</v>
       </c>
       <c r="D27" t="n">
         <v>15.34013605442177</v>
@@ -8876,7 +8876,7 @@
         <v>195973.306122449</v>
       </c>
       <c r="C29" t="n">
-        <v>46278.12244897956</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1840.816326530612</v>
@@ -8888,7 +8888,7 @@
         <v>162728.1632653061</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>46278.12244897956</v>
       </c>
     </row>
     <row r="30">
@@ -8998,22 +8998,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555561</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9076,7 +9076,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -9088,7 +9088,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9101,7 +9101,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -9113,7 +9113,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -9299,7 +9299,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="3">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C4" t="n">
-        <v>4184041.630612244</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2960791.702721088</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9383,13 +9383,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9399,16 +9399,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692523.6111111091</v>
+        <v>242990.7407407415</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1615888.425925919</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1633110.884353742</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>385651.0204081631</v>
       </c>
       <c r="D10" t="n">
         <v>15340.13605442177</v>
@@ -9514,7 +9514,7 @@
         <v>1356068.027210884</v>
       </c>
       <c r="G10" t="n">
-        <v>385651.0204081631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -9527,7 +9527,7 @@
         <v>261297.7414965986</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>61704.16326530609</v>
       </c>
       <c r="D11" t="n">
         <v>2454.421768707483</v>
@@ -9539,7 +9539,7 @@
         <v>216970.8843537415</v>
       </c>
       <c r="G11" t="n">
-        <v>61704.16326530609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -9552,7 +9552,7 @@
         <v>130648.8707482993</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30852.08163265311</v>
       </c>
       <c r="D12" t="n">
         <v>1227.210884353741</v>
@@ -9564,7 +9564,7 @@
         <v>108485.4421768707</v>
       </c>
       <c r="G12" t="n">
-        <v>30852.08163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -9577,7 +9577,7 @@
         <v>212304.4149659864</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>50134.6326530612</v>
       </c>
       <c r="D13" t="n">
         <v>1994.21768707483</v>
@@ -9589,7 +9589,7 @@
         <v>176288.843537415</v>
       </c>
       <c r="G13" t="n">
-        <v>50134.6326530612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -9602,7 +9602,7 @@
         <v>146979.9795918367</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>34708.59183673467</v>
       </c>
       <c r="D14" t="n">
         <v>1380.612244897959</v>
@@ -9614,7 +9614,7 @@
         <v>122046.1224489796</v>
       </c>
       <c r="G14" t="n">
-        <v>34708.59183673467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -9627,7 +9627,7 @@
         <v>734899.8979591837</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>173542.9591836734</v>
       </c>
       <c r="D15" t="n">
         <v>6903.061224489797</v>
@@ -9639,7 +9639,7 @@
         <v>610230.612244898</v>
       </c>
       <c r="G15" t="n">
-        <v>173542.9591836734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -9727,7 +9727,7 @@
         <v>849217.6598639456</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>200538.5306122448</v>
       </c>
       <c r="D19" t="n">
         <v>7976.87074829932</v>
@@ -9739,7 +9739,7 @@
         <v>705155.3741496599</v>
       </c>
       <c r="G19" t="n">
-        <v>200538.5306122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -9752,7 +9752,7 @@
         <v>16331.10884353741</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3856.510204081639</v>
       </c>
       <c r="D20" t="n">
         <v>153.4013605442177</v>
@@ -9764,7 +9764,7 @@
         <v>13560.68027210884</v>
       </c>
       <c r="G20" t="n">
-        <v>3856.51020408163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9777,7 +9777,7 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>104125.7755102043</v>
       </c>
       <c r="D21" t="n">
         <v>4141.836734693878</v>
@@ -9789,7 +9789,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G21" t="n">
-        <v>104125.775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -9827,7 +9827,7 @@
         <v>114317.7619047619</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26995.57142857147</v>
       </c>
       <c r="D23" t="n">
         <v>1073.809523809524</v>
@@ -9839,7 +9839,7 @@
         <v>94924.76190476189</v>
       </c>
       <c r="G23" t="n">
-        <v>26995.57142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -9852,7 +9852,7 @@
         <v>718568.7891156462</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>169686.4489795917</v>
       </c>
       <c r="D24" t="n">
         <v>6749.659863945578</v>
@@ -9864,7 +9864,7 @@
         <v>596669.9319727891</v>
       </c>
       <c r="G24" t="n">
-        <v>169686.4489795917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -9877,7 +9877,7 @@
         <v>604251.0272108844</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142690.8775510204</v>
       </c>
       <c r="D25" t="n">
         <v>5675.850340136055</v>
@@ -9889,7 +9889,7 @@
         <v>501745.1700680272</v>
       </c>
       <c r="G25" t="n">
-        <v>142690.8775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -9952,7 +9952,7 @@
         <v>8165.554421768707</v>
       </c>
       <c r="C28" t="n">
-        <v>1928.255102040815</v>
+        <v>1928.255102040819</v>
       </c>
       <c r="D28" t="n">
         <v>76.70068027210884</v>
@@ -9977,7 +9977,7 @@
         <v>195973.306122449</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>46278.12244897956</v>
       </c>
       <c r="D29" t="n">
         <v>1840.816326530612</v>
@@ -9989,7 +9989,7 @@
         <v>162728.1632653061</v>
       </c>
       <c r="G29" t="n">
-        <v>46278.12244897956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -10002,7 +10002,7 @@
         <v>48993.32653061224</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>11569.53061224489</v>
       </c>
       <c r="D30" t="n">
         <v>460.204081632653</v>
@@ -10014,7 +10014,7 @@
         <v>40682.04081632652</v>
       </c>
       <c r="G30" t="n">
-        <v>11569.53061224489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -10027,7 +10027,7 @@
         <v>440939.9387755102</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>104125.775510204</v>
       </c>
       <c r="D31" t="n">
         <v>4141.836734693878</v>
@@ -10039,7 +10039,7 @@
         <v>366138.3673469388</v>
       </c>
       <c r="G31" t="n">
-        <v>104125.775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -10077,7 +10077,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -10089,7 +10089,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -10099,22 +10099,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
     </row>
     <row r="35">
@@ -10127,7 +10127,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222222</v>
@@ -10139,7 +10139,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -10152,7 +10152,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222222</v>
@@ -10164,7 +10164,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -10227,7 +10227,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -10239,7 +10239,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -10252,7 +10252,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>24582.14988662615</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -10264,7 +10264,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>105851.1834467072</v>
       </c>
     </row>
     <row r="41">
@@ -10277,7 +10277,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -10289,7 +10289,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="3">
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333374</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -10475,7 +10475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -10484,13 +10484,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692523.6111111096</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1615888.425925921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="7">
@@ -11200,22 +11200,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
     </row>
     <row r="35">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333333</v>
       </c>
     </row>
     <row r="3">
@@ -11526,7 +11526,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -11541,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333333</v>
       </c>
     </row>
     <row r="5">
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11585,13 +11585,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692523.6111111088</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -11610,13 +11610,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1615888.425925918</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="7">
@@ -12301,22 +12301,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
     </row>
     <row r="35">
@@ -12605,10 +12605,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.444444444</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -12630,10 +12630,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.444444444</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -12652,13 +12652,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635096.2962962961</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.4444444438</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D4" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -12677,13 +12677,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C5" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222221</v>
       </c>
       <c r="D5" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -12702,13 +12702,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179813.1481481477</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C6" t="n">
-        <v>269719.7222222215</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>1348598.611111108</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="3">
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -13743,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -13753,7 +13753,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.6111111109</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -13787,13 +13787,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692523.6111111088</v>
+        <v>242990.7407407415</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -13812,13 +13812,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1615888.425925917</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="7">
@@ -14503,22 +14503,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555561</v>
       </c>
     </row>
     <row r="35">
@@ -14807,10 +14807,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.444444444</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -14832,10 +14832,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.444444444</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -14854,13 +14854,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635096.2962962961</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.4444444438</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D4" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -14879,13 +14879,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C5" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222221</v>
       </c>
       <c r="D5" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -14904,13 +14904,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179813.1481481477</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C6" t="n">
-        <v>269719.7222222215</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>1348598.611111108</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -15908,10 +15908,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.444444444</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -15933,10 +15933,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.444444444</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -15955,13 +15955,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635096.2962962961</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.4444444438</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D4" t="n">
-        <v>4763222.22222222</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -15980,13 +15980,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C5" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222221</v>
       </c>
       <c r="D5" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -16005,13 +16005,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179813.1481481477</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C6" t="n">
-        <v>269719.7222222215</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>1348598.611111108</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17006,13 +17006,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>635096.2962962963</v>
       </c>
       <c r="C2" t="n">
-        <v>1190805.555555555</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D2" t="n">
-        <v>5954027.777777777</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17031,13 +17031,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635096.2962962962</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.444444444</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.22222222</v>
+        <v>5954027.777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -17056,13 +17056,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775087.4474074064</v>
+        <v>726489.2992592589</v>
       </c>
       <c r="C4" t="n">
-        <v>1162631.171111109</v>
+        <v>1089733.948888888</v>
       </c>
       <c r="D4" t="n">
-        <v>5813155.855555548</v>
+        <v>5448669.744444441</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -17081,13 +17081,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>364486.1111111109</v>
+        <v>342616.9444444443</v>
       </c>
       <c r="D5" t="n">
-        <v>1822430.555555555</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -17106,13 +17106,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179813.1481481477</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>269719.7222222215</v>
+        <v>364486.1111111109</v>
       </c>
       <c r="D6" t="n">
-        <v>1348598.611111108</v>
+        <v>1822430.555555555</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17781,19 +17781,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666675</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="D33" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>602000.0000000003</v>
+        <v>602000.0000000034</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -17806,19 +17806,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.4444444445</v>
+        <v>93644.44444444498</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555562</v>
+        <v>86955.55555555606</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555562</v>
+        <v>86955.55555555606</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333335</v>
+        <v>401333.3333333355</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -17831,19 +17831,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -17856,7 +17856,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
         <v>73912.22222222226</v>
@@ -17881,19 +17881,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.88888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111121</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111121</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666671</v>
+        <v>802666.6666666711</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -17931,7 +17931,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
         <v>73912.22222222226</v>
@@ -17981,7 +17981,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
         <v>73912.22222222226</v>
@@ -18006,7 +18006,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
         <v>73912.22222222226</v>
@@ -18031,7 +18031,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
         <v>73912.22222222226</v>
@@ -18107,13 +18107,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
-        <v>1190805.555555555</v>
+        <v>1190805.555555559</v>
       </c>
       <c r="D2" t="n">
-        <v>5954027.777777776</v>
+        <v>5954027.777777795</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18132,13 +18132,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>719838.8044444445</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>1079758.206666666</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
-        <v>5398791.033333333</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -18157,13 +18157,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703681</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333312</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -18182,13 +18182,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>364486.111111111</v>
+        <v>342616.9444444443</v>
       </c>
       <c r="D5" t="n">
-        <v>1822430.555555555</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -18207,13 +18207,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179813.1481481477</v>
+        <v>242990.7407407413</v>
       </c>
       <c r="C6" t="n">
-        <v>269719.7222222215</v>
+        <v>364486.1111111119</v>
       </c>
       <c r="D6" t="n">
-        <v>1348598.611111108</v>
+        <v>1822430.555555559</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>245344</v>
       </c>
       <c r="C11" t="n">
-        <v>43296</v>
+        <v>43295.99999999997</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -18710,7 +18710,7 @@
         <v>306679.9999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>54120</v>
+        <v>54119.99999999997</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -18907,7 +18907,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444451</v>
+        <v>93644.4444444445</v>
       </c>
       <c r="C34" t="n">
         <v>86955.55555555562</v>
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C36" t="n">
         <v>73912.22222222226</v>
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C39" t="n">
         <v>73912.22222222226</v>
@@ -19082,7 +19082,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C41" t="n">
         <v>73912.22222222226</v>
@@ -19107,7 +19107,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C42" t="n">
         <v>73912.22222222226</v>
@@ -19132,7 +19132,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C43" t="n">
         <v>73912.22222222226</v>
@@ -19208,13 +19208,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
-        <v>1190805.555555555</v>
+        <v>1190805.555555559</v>
       </c>
       <c r="D2" t="n">
-        <v>5954027.777777776</v>
+        <v>5954027.777777795</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.783497959375381e-10</v>
       </c>
     </row>
     <row r="3">
@@ -19233,13 +19233,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>719838.8044444445</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>1079758.206666666</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
-        <v>5398791.033333333</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -19258,10 +19258,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703681</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333312</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -19283,13 +19283,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666666</v>
+        <v>342616.9444444443</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -19308,13 +19308,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179813.1481481477</v>
+        <v>242990.7407407413</v>
       </c>
       <c r="C6" t="n">
-        <v>269719.7222222215</v>
+        <v>364486.1111111119</v>
       </c>
       <c r="D6" t="n">
-        <v>1348598.611111108</v>
+        <v>1822430.555555559</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -19911,7 +19911,7 @@
         <v>46001.99999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>8118</v>
+        <v>8117.999999999996</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444451</v>
+        <v>93644.4444444445</v>
       </c>
       <c r="C34" t="n">
         <v>86955.55555555562</v>
@@ -20033,7 +20033,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C35" t="n">
         <v>73912.22222222226</v>
@@ -20211,7 +20211,7 @@
         <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222226</v>
@@ -20223,7 +20223,7 @@
         <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-1.510770686648109e-10</v>
       </c>
     </row>
     <row r="43">
@@ -20309,13 +20309,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>1190805.555555559</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5954027.777777795</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -20337,10 +20337,10 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>1190805.555555555</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
-        <v>5954027.777777776</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -20359,10 +20359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703681</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333312</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -20384,13 +20384,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444443</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -20409,13 +20409,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962959</v>
+        <v>242990.7407407413</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444437</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222219</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -20609,19 +20609,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146979.9795918367</v>
+        <v>146979.979591837</v>
       </c>
       <c r="C14" t="n">
-        <v>34708.59183673467</v>
+        <v>34708.59183673499</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897959</v>
+        <v>1380.612244898001</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122046.1224489796</v>
+        <v>122046.12244898</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -20690,7 +20690,7 @@
         <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.040816326531</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -20759,19 +20759,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16331.10884353741</v>
+        <v>16331.10884353743</v>
       </c>
       <c r="C20" t="n">
-        <v>3856.51020408163</v>
+        <v>3856.510204081652</v>
       </c>
       <c r="D20" t="n">
-        <v>153.4013605442177</v>
+        <v>153.4013605442205</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13560.68027210884</v>
+        <v>13560.68027210887</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -21009,19 +21009,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48993.32653061224</v>
+        <v>48993.32653061229</v>
       </c>
       <c r="C30" t="n">
-        <v>11569.53061224489</v>
+        <v>11569.53061224496</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632653</v>
+        <v>460.2040816326615</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40682.04081632652</v>
+        <v>40682.04081632661</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -21062,10 +21062,10 @@
         <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>23139.06122448979</v>
+        <v>23139.06122448978</v>
       </c>
       <c r="D32" t="n">
-        <v>920.4081632653063</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -21410,10 +21410,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333354</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -21460,10 +21460,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703681</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333312</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -21485,13 +21485,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444443</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -21510,13 +21510,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962959</v>
+        <v>242990.7407407413</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444437</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222219</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -21710,19 +21710,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146979.9795918367</v>
+        <v>146979.979591837</v>
       </c>
       <c r="C14" t="n">
-        <v>34708.59183673467</v>
+        <v>34708.59183673499</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.612244897959</v>
+        <v>1380.612244898001</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122046.1224489796</v>
+        <v>122046.12244898</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>115695.3061224489</v>
       </c>
       <c r="D17" t="n">
-        <v>4602.040816326531</v>
+        <v>4602.04081632653</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -21860,19 +21860,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16331.10884353741</v>
+        <v>16331.10884353743</v>
       </c>
       <c r="C20" t="n">
-        <v>3856.51020408163</v>
+        <v>3856.510204081652</v>
       </c>
       <c r="D20" t="n">
-        <v>153.4013605442177</v>
+        <v>153.4013605442205</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13560.68027210884</v>
+        <v>13560.68027210887</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -22110,19 +22110,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48993.32653061224</v>
+        <v>48993.32653061229</v>
       </c>
       <c r="C30" t="n">
-        <v>11569.53061224489</v>
+        <v>11569.53061224496</v>
       </c>
       <c r="D30" t="n">
-        <v>460.204081632653</v>
+        <v>460.2040816326615</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40682.04081632652</v>
+        <v>40682.04081632661</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -22163,10 +22163,10 @@
         <v>97986.65306122448</v>
       </c>
       <c r="C32" t="n">
-        <v>23139.06122448979</v>
+        <v>23139.06122448978</v>
       </c>
       <c r="D32" t="n">
-        <v>920.4081632653063</v>
+        <v>920.408163265306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
